--- a/PowerBIReports.xlsx
+++ b/PowerBIReports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df7cb6bafd3d8e08/Documents/GitHub/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F82F19B-3474-487D-999E-4D501986E95D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{2F82F19B-3474-487D-999E-4D501986E95D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D82C8CF8-116C-4C4E-9F2C-877C567A2370}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{E1A5B587-F39F-421E-9FF7-B2423B8B92D5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>EmbeddedURL</t>
   </si>
@@ -44,12 +44,6 @@
     <t>BTOBirds</t>
   </si>
   <si>
-    <t>https://app.powerbi.com/reportEmbed?reportId=1b23ace6-82d8-4a5f-a267-affd7ec0b35a&amp;groupId=cf2a15cc-b2bc-429a-9953-3ddb0aa6c104&amp;autoAuth=true</t>
-  </si>
-  <si>
-    <t>https://app.powerbi.com/reportEmbed?reportId=56fc689d-1868-4fcb-8b02-be60c24e155c&amp;groupId=b6333c19-817e-49e8-9ec9-ccdb3a8446d2&amp;autoAuth=true</t>
-  </si>
-  <si>
     <t>Premier League 17/18</t>
   </si>
   <si>
@@ -57,16 +51,27 @@
   </si>
   <si>
     <t>ReportSection1|ReportSection</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/reportEmbed?reportId=XXXXXXXXXXXXXXXXxx&amp;groupId=XXXXXXXXXXXXXXXXXX&amp;autoAuth=true</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,13 +94,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -423,7 +431,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,32 +448,36 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{1315D35C-45B4-429E-9565-3D9D2A8B7257}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{72323E99-4A27-4F69-A85C-463EA27F4C46}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>